--- a/data/case1/20/details_13.xlsx
+++ b/data/case1/20/details_13.xlsx
@@ -68,7 +68,7 @@
     <col min="10" max="10" width="3.140625" customWidth="true"/>
     <col min="11" max="11" width="3.140625" customWidth="true"/>
     <col min="12" max="12" width="3.140625" customWidth="true"/>
-    <col min="13" max="13" width="7.7109375" customWidth="true"/>
+    <col min="13" max="13" width="5.7109375" customWidth="true"/>
     <col min="14" max="14" width="5.7109375" customWidth="true"/>
     <col min="15" max="15" width="5.7109375" customWidth="true"/>
     <col min="16" max="16" width="5.7109375" customWidth="true"/>
@@ -83,49 +83,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0">
+        <v>7</v>
+      </c>
+      <c r="E1" s="0">
         <v>31</v>
       </c>
-      <c r="D1" s="0">
-        <v>8</v>
+      <c r="F1" s="0">
+        <v>28</v>
       </c>
-      <c r="E1" s="0">
+      <c r="G1" s="0">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0">
+        <v>31</v>
+      </c>
+      <c r="I1" s="0">
         <v>16</v>
       </c>
-      <c r="F1" s="0">
-        <v>14</v>
-      </c>
-      <c r="G1" s="0">
-        <v>30</v>
-      </c>
-      <c r="H1" s="0">
-        <v>25</v>
-      </c>
-      <c r="I1" s="0">
-        <v>29</v>
-      </c>
       <c r="J1" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K1" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L1" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M1" s="0">
-        <v>0.058990000000000008</v>
+        <v>0.001</v>
       </c>
       <c r="N1" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.028000000000000004</v>
       </c>
       <c r="O1" s="0">
-        <v>0.042000000000000003</v>
+        <v>0.028000000000000004</v>
       </c>
       <c r="P1" s="0">
-        <v>0.078</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="Q1" s="0">
-        <v>0.062</v>
+        <v>0.031</v>
       </c>
     </row>
   </sheetData>
